--- a/biology/Histoire de la zoologie et de la botanique/Richard_Southwood/Richard_Southwood.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Southwood/Richard_Southwood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sir Thomas Richard Edmund Southwood (20 juin 1931 – 26 octobre 2005) est professeur de zoologie et vice-chancelier de l'Université d'Oxford.
 Richard commence à s'intéresser à l'histoire naturelle dès son plus jeune âge, et développe ses compétences dans la ferme laitière de ses parents dans le Kent. Il publie ses premiers articles de recherche sur les insectes à l'âge de 16 ans.
@@ -513,10 +525,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Membre de la Royal Society, élu le 17 mars 1977[1].
-Chevalier, le 6 mars 1984[2]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Membre de la Royal Society, élu le 17 mars 1977.
+Chevalier, le 6 mars 1984</t>
         </is>
       </c>
     </row>
